--- a/database/industries/darou/dalber/product/yearly_seprated.xlsx
+++ b/database/industries/darou/dalber/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726ED994-270E-4C60-B872-C23F766FED4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED24564-ED07-47A9-9069-7EA056C8BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,45 +61,42 @@
     <t>بطری</t>
   </si>
   <si>
+    <t>جامدات</t>
+  </si>
+  <si>
+    <t>جعبه 100عددی</t>
+  </si>
+  <si>
+    <t>فرآورده های تزریقی</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>جامدات</t>
-  </si>
-  <si>
-    <t>جعبه صد عددی</t>
-  </si>
-  <si>
-    <t>فرآورده های تزریقی</t>
+    <t>خدمات ارائه شده.</t>
+  </si>
+  <si>
+    <t>شیشه</t>
+  </si>
+  <si>
+    <t>خدمات ارائه شده-فرآورده های تزریقی</t>
   </si>
   <si>
     <t>جعبه صدعددی</t>
   </si>
   <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جعبه 100عددی</t>
-  </si>
-  <si>
-    <t>خدمات ارائه شده.</t>
-  </si>
-  <si>
-    <t>شیشه</t>
-  </si>
-  <si>
-    <t>خدمات ارائه شده-فرآورده های تزریقی</t>
-  </si>
-  <si>
     <t>خدمات ارائه شده-جامدات</t>
   </si>
   <si>
@@ -142,22 +139,19 @@
     <t>بطری / ریال</t>
   </si>
   <si>
-    <t>جعبه صد عددی / ریال</t>
+    <t>جعبه 100عددی / ریال</t>
+  </si>
+  <si>
+    <t>نرخ فروش خارجی</t>
+  </si>
+  <si>
+    <t>نرخ فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>شیشه / ریال</t>
   </si>
   <si>
     <t>جعبه صدعددی / ریال</t>
-  </si>
-  <si>
-    <t>نرخ فروش خارجی</t>
-  </si>
-  <si>
-    <t>نرخ فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جعبه 100عددی / ریال</t>
-  </si>
-  <si>
-    <t>شیشه / ریال</t>
   </si>
   <si>
     <t>بهای تمام شده</t>
@@ -676,12 +670,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -691,7 +685,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -703,7 +697,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,7 +709,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -725,7 +719,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -737,7 +731,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -749,7 +743,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -759,7 +753,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -781,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -791,7 +785,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -803,7 +797,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -811,95 +805,95 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>25919663</v>
+      </c>
+      <c r="F11" s="11">
+        <v>33950470</v>
+      </c>
+      <c r="G11" s="11">
+        <v>25942095</v>
+      </c>
+      <c r="H11" s="11">
+        <v>17258797</v>
+      </c>
+      <c r="I11" s="11">
+        <v>34132821</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11">
-        <v>25919663</v>
-      </c>
-      <c r="G11" s="11">
-        <v>33950470</v>
-      </c>
-      <c r="H11" s="11">
-        <v>25942095</v>
-      </c>
-      <c r="I11" s="11">
-        <v>17258797</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
+        <v>20640600</v>
+      </c>
+      <c r="F12" s="13">
+        <v>22555162</v>
+      </c>
+      <c r="G12" s="13">
+        <v>23592072</v>
+      </c>
+      <c r="H12" s="13">
+        <v>17561805</v>
+      </c>
+      <c r="I12" s="13">
+        <v>25816044</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13">
-        <v>20640600</v>
-      </c>
-      <c r="G12" s="13">
-        <v>22555162</v>
-      </c>
-      <c r="H12" s="13">
-        <v>23592072</v>
-      </c>
-      <c r="I12" s="13">
-        <v>17561805</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
+        <v>462938</v>
+      </c>
+      <c r="F13" s="11">
+        <v>602493</v>
+      </c>
+      <c r="G13" s="11">
+        <v>677058</v>
+      </c>
+      <c r="H13" s="11">
+        <v>809155</v>
+      </c>
+      <c r="I13" s="11">
+        <v>976178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11">
-        <v>462938</v>
-      </c>
-      <c r="G13" s="11">
-        <v>602493</v>
-      </c>
-      <c r="H13" s="11">
-        <v>677058</v>
-      </c>
-      <c r="I13" s="11">
-        <v>809155</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>0</v>
+        <v>47023201</v>
       </c>
       <c r="F14" s="15">
-        <v>47023201</v>
+        <v>57108125</v>
       </c>
       <c r="G14" s="15">
-        <v>57108125</v>
+        <v>50211225</v>
       </c>
       <c r="H14" s="15">
-        <v>50211225</v>
+        <v>35629757</v>
       </c>
       <c r="I14" s="15">
-        <v>35629757</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60925043</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -909,7 +903,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
@@ -917,95 +911,95 @@
         <v>12</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="11">
+        <v>220006</v>
+      </c>
+      <c r="F16" s="11">
+        <v>46987</v>
+      </c>
+      <c r="G16" s="11">
+        <v>69515</v>
+      </c>
+      <c r="H16" s="11">
+        <v>211204</v>
+      </c>
+      <c r="I16" s="11">
+        <v>148853</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="11">
-        <v>220006</v>
-      </c>
-      <c r="G16" s="11">
-        <v>46987</v>
-      </c>
-      <c r="H16" s="11">
-        <v>69515</v>
-      </c>
-      <c r="I16" s="11">
-        <v>211204</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
+        <v>95674</v>
+      </c>
+      <c r="F17" s="13">
+        <v>9117</v>
+      </c>
+      <c r="G17" s="13">
+        <v>45404</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="13">
-        <v>95674</v>
-      </c>
-      <c r="G17" s="13">
-        <v>9117</v>
-      </c>
-      <c r="H17" s="13">
-        <v>45404</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
+      <c r="E18" s="11">
+        <v>40689</v>
       </c>
       <c r="F18" s="11">
-        <v>40689</v>
+        <v>54827</v>
       </c>
       <c r="G18" s="11">
-        <v>54827</v>
+        <v>32310</v>
       </c>
       <c r="H18" s="11">
-        <v>32310</v>
+        <v>57913</v>
       </c>
       <c r="I18" s="11">
-        <v>57913</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>39321</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>356369</v>
       </c>
       <c r="F19" s="15">
-        <v>356369</v>
+        <v>110931</v>
       </c>
       <c r="G19" s="15">
-        <v>110931</v>
+        <v>147229</v>
       </c>
       <c r="H19" s="15">
-        <v>147229</v>
+        <v>269117</v>
       </c>
       <c r="I19" s="15">
-        <v>269117</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>190534</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1015,7 +1009,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
@@ -1024,144 +1018,144 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="11">
+        <v>6530633</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6310786</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="11">
-        <v>6530633</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1692278</v>
       </c>
       <c r="I22" s="13">
-        <v>1692278</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>383209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3210</v>
       </c>
       <c r="I23" s="11">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="C26" s="13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -1175,44 +1169,44 @@
         <v>0</v>
       </c>
       <c r="H27" s="17">
-        <v>0</v>
+        <v>8226121</v>
       </c>
       <c r="I27" s="17">
-        <v>8226121</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6696555</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>13</v>
+      <c r="E29" s="17">
+        <v>0</v>
       </c>
       <c r="F29" s="17">
         <v>0</v>
@@ -1224,32 +1218,32 @@
         <v>0</v>
       </c>
       <c r="I29" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-489716</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>47379570</v>
       </c>
       <c r="F30" s="15">
-        <v>47379570</v>
+        <v>57219056</v>
       </c>
       <c r="G30" s="15">
-        <v>57219056</v>
+        <v>50358454</v>
       </c>
       <c r="H30" s="15">
-        <v>50358454</v>
+        <v>44124995</v>
       </c>
       <c r="I30" s="15">
-        <v>44124995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67322416</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1259,7 +1253,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1269,7 +1263,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1279,9 +1273,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1301,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1311,9 +1305,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1323,103 +1317,103 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="11">
+        <v>860119</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1738370</v>
+      </c>
+      <c r="G37" s="11">
+        <v>2225981</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1736120</v>
+      </c>
+      <c r="I37" s="11">
+        <v>4234513</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="11">
-        <v>860119</v>
-      </c>
-      <c r="G37" s="11">
-        <v>1738370</v>
-      </c>
-      <c r="H37" s="11">
-        <v>2225981</v>
-      </c>
-      <c r="I37" s="11">
-        <v>1736120</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C38" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>13</v>
+      <c r="E38" s="13">
+        <v>2786176</v>
       </c>
       <c r="F38" s="13">
-        <v>2786176</v>
+        <v>3851339</v>
       </c>
       <c r="G38" s="13">
-        <v>3851339</v>
+        <v>4677959</v>
       </c>
       <c r="H38" s="13">
-        <v>4677959</v>
+        <v>4285895</v>
       </c>
       <c r="I38" s="13">
-        <v>4285895</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8172957</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11">
+        <v>1407508</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2125296</v>
+      </c>
+      <c r="G39" s="11">
+        <v>2322834</v>
+      </c>
+      <c r="H39" s="11">
+        <v>7627516</v>
+      </c>
+      <c r="I39" s="11">
+        <v>10117100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="11">
-        <v>1407508</v>
-      </c>
-      <c r="G39" s="11">
-        <v>2125296</v>
-      </c>
-      <c r="H39" s="11">
-        <v>2322834</v>
-      </c>
-      <c r="I39" s="11">
-        <v>7627516</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>0</v>
+        <v>5053803</v>
       </c>
       <c r="F40" s="15">
-        <v>5053803</v>
+        <v>7715005</v>
       </c>
       <c r="G40" s="15">
-        <v>7715005</v>
+        <v>9226774</v>
       </c>
       <c r="H40" s="15">
-        <v>9226774</v>
+        <v>13649531</v>
       </c>
       <c r="I40" s="15">
-        <v>13649531</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22524570</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1429,103 +1423,103 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="11">
+        <v>4818</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1670</v>
+      </c>
+      <c r="G42" s="11">
+        <v>2310</v>
+      </c>
+      <c r="H42" s="11">
+        <v>272281</v>
+      </c>
+      <c r="I42" s="11">
+        <v>10343</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="11">
-        <v>4818</v>
-      </c>
-      <c r="G42" s="11">
-        <v>1670</v>
-      </c>
-      <c r="H42" s="11">
-        <v>2310</v>
-      </c>
-      <c r="I42" s="11">
-        <v>272281</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C43" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>13</v>
+      <c r="E43" s="13">
+        <v>10783</v>
       </c>
       <c r="F43" s="13">
-        <v>10783</v>
+        <v>2785</v>
       </c>
       <c r="G43" s="13">
-        <v>2785</v>
+        <v>5247</v>
       </c>
       <c r="H43" s="13">
-        <v>5247</v>
+        <v>0</v>
       </c>
       <c r="I43" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
+      <c r="E44" s="11">
+        <v>90437</v>
       </c>
       <c r="F44" s="11">
-        <v>90437</v>
+        <v>77523</v>
       </c>
       <c r="G44" s="11">
-        <v>77523</v>
+        <v>130110</v>
       </c>
       <c r="H44" s="11">
-        <v>130110</v>
+        <v>9961</v>
       </c>
       <c r="I44" s="11">
-        <v>9961</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>350999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>0</v>
+        <v>106038</v>
       </c>
       <c r="F45" s="15">
-        <v>106038</v>
+        <v>81978</v>
       </c>
       <c r="G45" s="15">
-        <v>81978</v>
+        <v>137667</v>
       </c>
       <c r="H45" s="15">
-        <v>137667</v>
+        <v>282242</v>
       </c>
       <c r="I45" s="15">
-        <v>282242</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>362047</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1535,243 +1529,243 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="11">
+        <v>438352</v>
+      </c>
+      <c r="I47" s="11">
+        <v>505516</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="11">
-        <v>438352</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C48" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H48" s="13">
+        <v>151631</v>
       </c>
       <c r="I48" s="13">
-        <v>151631</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>77135</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H49" s="11">
+        <v>18818</v>
       </c>
       <c r="I49" s="11">
-        <v>18818</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19556</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13">
+        <v>91801</v>
+      </c>
+      <c r="F50" s="13">
+        <v>138159</v>
+      </c>
+      <c r="G50" s="13">
+        <v>421754</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="13">
-        <v>91801</v>
-      </c>
-      <c r="G50" s="13">
-        <v>138159</v>
-      </c>
-      <c r="H50" s="13">
-        <v>421754</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11">
+        <v>48500</v>
+      </c>
+      <c r="F51" s="11">
+        <v>26407</v>
+      </c>
+      <c r="G51" s="11">
+        <v>22347</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="11">
-        <v>48500</v>
-      </c>
-      <c r="G51" s="11">
-        <v>26407</v>
-      </c>
-      <c r="H51" s="11">
-        <v>22347</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="C52" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="13">
+        <v>20</v>
+      </c>
+      <c r="G52" s="13">
         <v>19869</v>
       </c>
+      <c r="H52" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I52" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17">
-        <v>0</v>
+        <v>140301</v>
       </c>
       <c r="F53" s="17">
-        <v>140301</v>
+        <v>164566</v>
       </c>
       <c r="G53" s="17">
-        <v>164566</v>
+        <v>463970</v>
       </c>
       <c r="H53" s="17">
-        <v>463970</v>
+        <v>608801</v>
       </c>
       <c r="I53" s="17">
-        <v>608801</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>602207</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>13</v>
+      <c r="E54" s="15">
+        <v>0</v>
       </c>
       <c r="F54" s="15">
-        <v>0</v>
+        <v>-233675</v>
       </c>
       <c r="G54" s="15">
-        <v>-233675</v>
-      </c>
-      <c r="H54" s="15">
         <v>-369258</v>
       </c>
+      <c r="H54" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="I54" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17">
+        <v>-407681</v>
+      </c>
+      <c r="F55" s="17">
+        <v>-319532</v>
+      </c>
+      <c r="G55" s="17">
+        <v>-658308</v>
+      </c>
+      <c r="H55" s="17">
+        <v>0</v>
+      </c>
+      <c r="I55" s="17">
+        <v>-357664</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="17">
-        <v>-407681</v>
-      </c>
-      <c r="G55" s="17">
-        <v>-319532</v>
-      </c>
-      <c r="H55" s="17">
-        <v>-658308</v>
-      </c>
-      <c r="I55" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>0</v>
+        <v>4892461</v>
       </c>
       <c r="F56" s="15">
-        <v>4892461</v>
+        <v>7408342</v>
       </c>
       <c r="G56" s="15">
-        <v>7408342</v>
+        <v>8800845</v>
       </c>
       <c r="H56" s="15">
-        <v>8800845</v>
+        <v>14540574</v>
       </c>
       <c r="I56" s="15">
-        <v>14540574</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23131160</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1781,7 +1775,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1791,7 +1785,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1801,9 +1795,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1823,7 +1817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1833,9 +1827,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1845,81 +1839,81 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11">
+        <v>33184</v>
+      </c>
+      <c r="F63" s="11">
+        <v>51203</v>
+      </c>
+      <c r="G63" s="11">
+        <v>85806</v>
+      </c>
+      <c r="H63" s="11">
+        <v>100593</v>
+      </c>
+      <c r="I63" s="11">
+        <v>124060</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="11">
-        <v>33184</v>
-      </c>
-      <c r="G63" s="11">
-        <v>51203</v>
-      </c>
-      <c r="H63" s="11">
-        <v>85806</v>
-      </c>
-      <c r="I63" s="11">
-        <v>100593</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13">
+        <v>134985</v>
+      </c>
+      <c r="F64" s="13">
+        <v>170752</v>
+      </c>
+      <c r="G64" s="13">
+        <v>198285</v>
+      </c>
+      <c r="H64" s="13">
+        <v>244046</v>
+      </c>
+      <c r="I64" s="13">
+        <v>316584</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11">
+        <v>3040381</v>
+      </c>
+      <c r="F65" s="11">
+        <v>3527503</v>
+      </c>
+      <c r="G65" s="11">
+        <v>3430776</v>
+      </c>
+      <c r="H65" s="11">
+        <v>9426520</v>
+      </c>
+      <c r="I65" s="11">
+        <v>10363991</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="13">
-        <v>134985</v>
-      </c>
-      <c r="G64" s="13">
-        <v>170752</v>
-      </c>
-      <c r="H64" s="13">
-        <v>198285</v>
-      </c>
-      <c r="I64" s="13">
-        <v>244046</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="11">
-        <v>3040381</v>
-      </c>
-      <c r="G65" s="11">
-        <v>3527503</v>
-      </c>
-      <c r="H65" s="11">
-        <v>3430776</v>
-      </c>
-      <c r="I65" s="11">
-        <v>9426520</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1929,81 +1923,81 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11">
+        <v>21899</v>
+      </c>
+      <c r="F67" s="11">
+        <v>35542</v>
+      </c>
+      <c r="G67" s="11">
+        <v>33230</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1289185</v>
+      </c>
+      <c r="I67" s="11">
+        <v>69485</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="11">
-        <v>21899</v>
-      </c>
-      <c r="G67" s="11">
-        <v>35542</v>
-      </c>
-      <c r="H67" s="11">
-        <v>33230</v>
-      </c>
-      <c r="I67" s="11">
-        <v>1289185</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
-        <v>13</v>
+      <c r="E68" s="13">
+        <v>112706</v>
       </c>
       <c r="F68" s="13">
-        <v>112706</v>
+        <v>305473</v>
       </c>
       <c r="G68" s="13">
-        <v>305473</v>
+        <v>115563</v>
       </c>
       <c r="H68" s="13">
-        <v>115563</v>
+        <v>0</v>
       </c>
       <c r="I68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>298729</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11">
+        <v>2222640</v>
+      </c>
+      <c r="F69" s="11">
+        <v>1413957</v>
+      </c>
+      <c r="G69" s="11">
+        <v>4026927</v>
+      </c>
+      <c r="H69" s="11">
+        <v>171999</v>
+      </c>
+      <c r="I69" s="11">
+        <v>8926502</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="11">
-        <v>2222640</v>
-      </c>
-      <c r="G69" s="11">
-        <v>1413957</v>
-      </c>
-      <c r="H69" s="11">
-        <v>4026927</v>
-      </c>
-      <c r="I69" s="11">
-        <v>171999</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2013,151 +2007,151 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="11">
+        <v>67122</v>
+      </c>
+      <c r="I71" s="11">
+        <v>80103</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="11">
-        <v>67122</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C72" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H72" s="13">
+        <v>89602</v>
       </c>
       <c r="I72" s="13">
-        <v>89602</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>201287</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H73" s="11">
+        <v>5862305</v>
       </c>
       <c r="I73" s="11">
-        <v>5862305</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7639063</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
+        <v>0</v>
+      </c>
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="13">
-        <v>0</v>
-      </c>
-      <c r="G74" s="13">
-        <v>0</v>
-      </c>
-      <c r="H74" s="13">
-        <v>0</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
+      <c r="C75" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11">
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="11">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
-        <v>0</v>
-      </c>
-      <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="C76" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="13">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G76" s="13">
+        <v>0</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2167,7 +2161,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2177,7 +2171,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2187,9 +2181,9 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2209,7 +2203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2219,9 +2213,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2231,103 +2225,103 @@
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="11">
+        <v>-513544</v>
+      </c>
+      <c r="F83" s="11">
+        <v>-791524</v>
+      </c>
+      <c r="G83" s="11">
+        <v>-820697</v>
+      </c>
+      <c r="H83" s="11">
+        <v>-958030</v>
+      </c>
+      <c r="I83" s="11">
+        <v>-2599410</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="11">
-        <v>-513544</v>
-      </c>
-      <c r="G83" s="11">
-        <v>-791524</v>
-      </c>
-      <c r="H83" s="11">
-        <v>-820697</v>
-      </c>
-      <c r="I83" s="11">
-        <v>-958030</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C84" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" s="13"/>
-      <c r="E84" s="13" t="s">
-        <v>13</v>
+      <c r="E84" s="13">
+        <v>-1395243</v>
       </c>
       <c r="F84" s="13">
-        <v>-1395243</v>
+        <v>-1926019</v>
       </c>
       <c r="G84" s="13">
-        <v>-1926019</v>
+        <v>-2149921</v>
       </c>
       <c r="H84" s="13">
-        <v>-2149921</v>
+        <v>-2508636</v>
       </c>
       <c r="I84" s="13">
-        <v>-2508636</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4315235</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>13</v>
+      <c r="E85" s="11">
+        <v>-651200</v>
       </c>
       <c r="F85" s="11">
-        <v>-651200</v>
+        <v>-952671</v>
       </c>
       <c r="G85" s="11">
-        <v>-952671</v>
+        <v>-1287846</v>
       </c>
       <c r="H85" s="11">
-        <v>-1287846</v>
+        <v>-4116729</v>
       </c>
       <c r="I85" s="11">
-        <v>-4116729</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6173816</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
-        <v>0</v>
+        <v>-2559987</v>
       </c>
       <c r="F86" s="15">
-        <v>-2559987</v>
+        <v>-3670214</v>
       </c>
       <c r="G86" s="15">
-        <v>-3670214</v>
+        <v>-4258464</v>
       </c>
       <c r="H86" s="15">
-        <v>-4258464</v>
+        <v>-7583395</v>
       </c>
       <c r="I86" s="15">
-        <v>-7583395</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13088461</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2337,103 +2331,103 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="11">
+        <v>-3299</v>
+      </c>
+      <c r="F88" s="11">
+        <v>-1407</v>
+      </c>
+      <c r="G88" s="11">
+        <v>-1748</v>
+      </c>
+      <c r="H88" s="11">
+        <v>-7332</v>
+      </c>
+      <c r="I88" s="11">
+        <v>-10065</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="11">
-        <v>-3299</v>
-      </c>
-      <c r="G88" s="11">
-        <v>-1407</v>
-      </c>
-      <c r="H88" s="11">
-        <v>-1748</v>
-      </c>
-      <c r="I88" s="11">
-        <v>-7332</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C89" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="13"/>
-      <c r="E89" s="13" t="s">
-        <v>13</v>
+      <c r="E89" s="13">
+        <v>-5230</v>
       </c>
       <c r="F89" s="13">
-        <v>-5230</v>
+        <v>-2411</v>
       </c>
       <c r="G89" s="13">
-        <v>-2411</v>
+        <v>-3906</v>
       </c>
       <c r="H89" s="13">
-        <v>-3906</v>
+        <v>0</v>
       </c>
       <c r="I89" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-573</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>13</v>
+      <c r="E90" s="11">
+        <v>-44349</v>
       </c>
       <c r="F90" s="11">
-        <v>-44349</v>
+        <v>-58426</v>
       </c>
       <c r="G90" s="11">
-        <v>-58426</v>
+        <v>-57985</v>
       </c>
       <c r="H90" s="11">
-        <v>-57985</v>
+        <v>-112482</v>
       </c>
       <c r="I90" s="11">
-        <v>-112482</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-205199</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15">
-        <v>0</v>
+        <v>-52878</v>
       </c>
       <c r="F91" s="15">
-        <v>-52878</v>
+        <v>-62244</v>
       </c>
       <c r="G91" s="15">
-        <v>-62244</v>
+        <v>-63639</v>
       </c>
       <c r="H91" s="15">
-        <v>-63639</v>
+        <v>-119814</v>
       </c>
       <c r="I91" s="15">
-        <v>-119814</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-215837</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2443,182 +2437,182 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="11">
+        <v>-170803</v>
+      </c>
+      <c r="I93" s="11">
+        <v>-177110</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="11">
-        <v>-170803</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C94" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H94" s="13">
+        <v>-75888</v>
       </c>
       <c r="I94" s="13">
-        <v>-75888</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-32471</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H95" s="11">
+        <v>-7314</v>
       </c>
       <c r="I95" s="11">
-        <v>-7314</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4252</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13">
+        <v>-28263</v>
+      </c>
+      <c r="F96" s="13">
+        <v>-45736</v>
+      </c>
+      <c r="G96" s="13">
+        <v>-155339</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13">
-        <v>-28263</v>
-      </c>
-      <c r="G96" s="13">
-        <v>-45736</v>
-      </c>
-      <c r="H96" s="13">
-        <v>-155339</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
+      <c r="C97" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11">
+        <v>-22607</v>
+      </c>
+      <c r="F97" s="11">
+        <v>-17710</v>
+      </c>
+      <c r="G97" s="11">
+        <v>-15642</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="11">
-        <v>-22607</v>
-      </c>
-      <c r="G97" s="11">
-        <v>-17710</v>
-      </c>
-      <c r="H97" s="11">
-        <v>-15642</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="C98" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="13">
+        <v>20</v>
+      </c>
+      <c r="G98" s="13">
         <v>-10653</v>
       </c>
+      <c r="H98" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I98" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17">
-        <v>0</v>
+        <v>-50870</v>
       </c>
       <c r="F99" s="17">
-        <v>-50870</v>
+        <v>-63446</v>
       </c>
       <c r="G99" s="17">
-        <v>-63446</v>
+        <v>-181634</v>
       </c>
       <c r="H99" s="17">
-        <v>-181634</v>
+        <v>-254005</v>
       </c>
       <c r="I99" s="17">
-        <v>-254005</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-213833</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" s="15"/>
-      <c r="E100" s="15" t="s">
-        <v>13</v>
+      <c r="E100" s="15">
+        <v>0</v>
       </c>
       <c r="F100" s="15">
         <v>0</v>
@@ -2626,60 +2620,60 @@
       <c r="G100" s="15">
         <v>0</v>
       </c>
-      <c r="H100" s="15">
-        <v>0</v>
+      <c r="H100" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17">
+        <v>0</v>
+      </c>
+      <c r="F101" s="17">
+        <v>0</v>
+      </c>
+      <c r="G101" s="17">
+        <v>0</v>
+      </c>
+      <c r="H101" s="17">
+        <v>0</v>
+      </c>
+      <c r="I101" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="17">
-        <v>0</v>
-      </c>
-      <c r="G101" s="17">
-        <v>0</v>
-      </c>
-      <c r="H101" s="17">
-        <v>0</v>
-      </c>
-      <c r="I101" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15">
-        <v>0</v>
+        <v>-2663735</v>
       </c>
       <c r="F102" s="15">
-        <v>-2663735</v>
+        <v>-3795904</v>
       </c>
       <c r="G102" s="15">
-        <v>-3795904</v>
+        <v>-4503737</v>
       </c>
       <c r="H102" s="15">
-        <v>-4503737</v>
+        <v>-7957214</v>
       </c>
       <c r="I102" s="15">
-        <v>-7957214</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-13518131</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2689,7 +2683,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2699,7 +2693,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2709,9 +2703,9 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2731,7 +2725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2741,9 +2735,9 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2753,103 +2747,103 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="11">
+        <v>346575</v>
+      </c>
+      <c r="F109" s="11">
+        <v>946846</v>
+      </c>
+      <c r="G109" s="11">
+        <v>1405284</v>
+      </c>
+      <c r="H109" s="11">
+        <v>778090</v>
+      </c>
+      <c r="I109" s="11">
+        <v>1635103</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="11">
-        <v>346575</v>
-      </c>
-      <c r="G109" s="11">
-        <v>946846</v>
-      </c>
-      <c r="H109" s="11">
-        <v>1405284</v>
-      </c>
-      <c r="I109" s="11">
-        <v>778090</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C110" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D110" s="13"/>
-      <c r="E110" s="13" t="s">
-        <v>13</v>
+      <c r="E110" s="13">
+        <v>1390933</v>
       </c>
       <c r="F110" s="13">
-        <v>1390933</v>
+        <v>1925320</v>
       </c>
       <c r="G110" s="13">
-        <v>1925320</v>
+        <v>2528038</v>
       </c>
       <c r="H110" s="13">
-        <v>2528038</v>
+        <v>1777259</v>
       </c>
       <c r="I110" s="13">
-        <v>1777259</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3857722</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111" s="11"/>
-      <c r="E111" s="11" t="s">
-        <v>13</v>
+      <c r="E111" s="11">
+        <v>756308</v>
       </c>
       <c r="F111" s="11">
-        <v>756308</v>
+        <v>1172625</v>
       </c>
       <c r="G111" s="11">
-        <v>1172625</v>
+        <v>1034988</v>
       </c>
       <c r="H111" s="11">
-        <v>1034988</v>
+        <v>3510787</v>
       </c>
       <c r="I111" s="11">
-        <v>3510787</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3943284</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
-        <v>0</v>
+        <v>2493816</v>
       </c>
       <c r="F112" s="15">
-        <v>2493816</v>
+        <v>4044791</v>
       </c>
       <c r="G112" s="15">
-        <v>4044791</v>
+        <v>4968310</v>
       </c>
       <c r="H112" s="15">
-        <v>4968310</v>
+        <v>6066136</v>
       </c>
       <c r="I112" s="15">
-        <v>6066136</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9436109</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -2859,103 +2853,103 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="11">
+        <v>1519</v>
+      </c>
+      <c r="F114" s="11">
+        <v>263</v>
+      </c>
+      <c r="G114" s="11">
+        <v>562</v>
+      </c>
+      <c r="H114" s="11">
+        <v>264949</v>
+      </c>
+      <c r="I114" s="11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F114" s="11">
-        <v>1519</v>
-      </c>
-      <c r="G114" s="11">
-        <v>263</v>
-      </c>
-      <c r="H114" s="11">
-        <v>562</v>
-      </c>
-      <c r="I114" s="11">
-        <v>264949</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C115" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115" s="13"/>
-      <c r="E115" s="13" t="s">
-        <v>13</v>
+      <c r="E115" s="13">
+        <v>5553</v>
       </c>
       <c r="F115" s="13">
-        <v>5553</v>
+        <v>374</v>
       </c>
       <c r="G115" s="13">
-        <v>374</v>
+        <v>1341</v>
       </c>
       <c r="H115" s="13">
-        <v>1341</v>
+        <v>0</v>
       </c>
       <c r="I115" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>13</v>
+      <c r="E116" s="11">
+        <v>46088</v>
       </c>
       <c r="F116" s="11">
-        <v>46088</v>
+        <v>19097</v>
       </c>
       <c r="G116" s="11">
-        <v>19097</v>
+        <v>72125</v>
       </c>
       <c r="H116" s="11">
-        <v>72125</v>
+        <v>-102521</v>
       </c>
       <c r="I116" s="11">
-        <v>-102521</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145800</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
-        <v>0</v>
+        <v>53160</v>
       </c>
       <c r="F117" s="15">
-        <v>53160</v>
+        <v>19734</v>
       </c>
       <c r="G117" s="15">
-        <v>19734</v>
+        <v>74028</v>
       </c>
       <c r="H117" s="15">
-        <v>74028</v>
+        <v>162428</v>
       </c>
       <c r="I117" s="15">
-        <v>162428</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>146210</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -2965,192 +2959,192 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="11">
+        <v>267549</v>
+      </c>
+      <c r="I119" s="11">
+        <v>328406</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" s="11">
-        <v>267549</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C120" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H120" s="13">
+        <v>75743</v>
       </c>
       <c r="I120" s="13">
-        <v>75743</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H121" s="11">
+        <v>11504</v>
       </c>
       <c r="I121" s="11">
-        <v>11504</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15304</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13">
+        <v>63538</v>
+      </c>
+      <c r="F122" s="13">
+        <v>92423</v>
+      </c>
+      <c r="G122" s="13">
+        <v>266415</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="13">
-        <v>63538</v>
-      </c>
-      <c r="G122" s="13">
-        <v>92423</v>
-      </c>
-      <c r="H122" s="13">
-        <v>266415</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="10" t="s">
+      <c r="C123" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11">
+        <v>25893</v>
+      </c>
+      <c r="F123" s="11">
+        <v>8697</v>
+      </c>
+      <c r="G123" s="11">
+        <v>6705</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C123" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="11">
-        <v>25893</v>
-      </c>
-      <c r="G123" s="11">
-        <v>8697</v>
-      </c>
-      <c r="H123" s="11">
-        <v>6705</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="C124" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="13">
+        <v>20</v>
+      </c>
+      <c r="G124" s="13">
         <v>9216</v>
       </c>
+      <c r="H124" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I124" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17">
-        <v>0</v>
+        <v>89431</v>
       </c>
       <c r="F125" s="17">
-        <v>89431</v>
+        <v>101120</v>
       </c>
       <c r="G125" s="17">
-        <v>101120</v>
+        <v>282336</v>
       </c>
       <c r="H125" s="17">
-        <v>282336</v>
+        <v>354796</v>
       </c>
       <c r="I125" s="17">
-        <v>354796</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>388374</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15">
-        <v>0</v>
+        <v>2636407</v>
       </c>
       <c r="F126" s="15">
-        <v>2636407</v>
+        <v>4165645</v>
       </c>
       <c r="G126" s="15">
-        <v>4165645</v>
+        <v>5324674</v>
       </c>
       <c r="H126" s="15">
-        <v>5324674</v>
+        <v>6583360</v>
       </c>
       <c r="I126" s="15">
-        <v>6583360</v>
+        <v>9970693</v>
       </c>
     </row>
   </sheetData>
